--- a/topic01/book-a/archives/lab02a_solution.xlsx
+++ b/topic01/book-a/archives/lab02a_solution.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\data-analytics\topic02\book\archives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\analytics-2016\topic01\book-a\archives\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Newspapers" sheetId="2" r:id="rId1"/>
     <sheet name="Census Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -561,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,8 +947,8 @@
         <v>15</v>
       </c>
       <c r="B23" s="13">
-        <f>G19/H19</f>
-        <v>3.7037037037037035E-2</v>
+        <f>G19/H21</f>
+        <v>9.908681949735744E-4</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="D24" s="13">
         <f>C24+B24-B23</f>
-        <v>6.8786607287507004E-2</v>
+        <v>0.10483277612957047</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>

--- a/topic01/book-a/archives/lab02a_solution.xlsx
+++ b/topic01/book-a/archives/lab02a_solution.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\analytics-2016\topic01\book-a\archives\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Newspapers" sheetId="2" r:id="rId1"/>
     <sheet name="Census Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -315,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,14 +560,14 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -585,7 +580,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -598,7 +593,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -609,7 +604,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -620,7 +615,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -631,7 +626,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
@@ -644,7 +639,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -670,20 +665,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -691,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="39" x14ac:dyDescent="0.25">
@@ -715,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -742,7 +737,7 @@
         <v>4592403</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -775,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -787,13 +782,13 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="8">
         <f>C6+D6+E6+F6+G6</f>
         <v>0.76976976976976985</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -805,13 +800,13 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="8">
         <f>E6+F6+G6</f>
         <v>0.20520520520520519</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
@@ -823,13 +818,13 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="8">
         <f>C9+C11-(E6+F6+G6)</f>
         <v>0.76976976976976985</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
@@ -841,7 +836,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -865,7 +860,7 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -892,7 +887,7 @@
         <v>4592403</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -916,7 +911,7 @@
       </c>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -932,7 +927,7 @@
         <v>171656534</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -942,7 +937,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
@@ -968,7 +963,7 @@
         <v>3.9284940572799187E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
